--- a/files/03.IBGE/Censo 2022 - População por cor ou raça - Uberaba (MG).xlsx
+++ b/files/03.IBGE/Censo 2022 - População por cor ou raça - Uberaba (MG).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\eleicoes\03.IBGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\03.IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F83D42-18B1-4B46-8F95-E39351E2BEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B87158A-6EC1-4A7D-92B4-D87590C283C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22416" yWindow="624" windowWidth="13824" windowHeight="7188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cor ou raça</t>
   </si>
@@ -28,22 +28,7 @@
     <t>População (pessoas)</t>
   </si>
   <si>
-    <t>Município</t>
-  </si>
-  <si>
-    <t>Sigla UF</t>
-  </si>
-  <si>
-    <t>Código do Município</t>
-  </si>
-  <si>
     <t>Branca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uberaba </t>
-  </si>
-  <si>
-    <t>MG</t>
   </si>
   <si>
     <t>Preta</t>
@@ -432,127 +417,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>176480</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>37856</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1124</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>122134</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>3170107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
       </c>
       <c r="B6">
         <v>240</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>3170107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>